--- a/451-cp-searchparameter-pour-récupérer-les-offres-rattachées-à-un-professionnel/ig/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/451-cp-searchparameter-pour-récupérer-les-offres-rattachées-à-un-professionnel/ig/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T09:36:31+00:00</t>
+    <t>2026-01-08T11:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/451-cp-searchparameter-pour-récupérer-les-offres-rattachées-à-un-professionnel/ig/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/451-cp-searchparameter-pour-récupérer-les-offres-rattachées-à-un-professionnel/ig/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T11:40:35+00:00</t>
+    <t>2026-01-20T13:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
